--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136353.6236823402</v>
+        <v>134096.0921100572</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6632862.567171205</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12846854.2271264</v>
+        <v>12846147.16330777</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>339.4822772397036</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>188.5970350096844</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.15498537658378</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.4740936944296</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>251.2108163496528</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>138.3254349691659</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>273.302776408631</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>79.3292071608917</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>231.861407432049</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>251.051018904027</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.8374309337276</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819449</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30.05960474068993</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>210.045259643091</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.1771250849618</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>214.7262751103101</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.39704518691079</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S18" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671982</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.751300331319854</v>
       </c>
       <c r="T19" t="n">
-        <v>55.79189333574492</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264396643</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S21" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>88.64471693309213</v>
+        <v>7.54902207620556</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.212135382016</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S24" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0438314768596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>39.68067522990205</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671985</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5722280944082</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16.02712092796068</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>90.21683571239791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>72.21488769012026</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>56.00855464855943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.87679665314539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5436091222467</v>
+        <v>178.775724893532</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298071</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.969552970623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259155</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143284</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.10749222538075</v>
+        <v>87.87589738164208</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4806542717513</v>
+        <v>107.738324080096</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2605782164786</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9234671459222</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>249.8492722641374</v>
+        <v>251.0813880354227</v>
       </c>
       <c r="W37" t="n">
-        <v>284.2346272769004</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>223.4212843293465</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2962822924042</v>
+        <v>217.5283980636895</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145497</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3901,22 +3901,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996191</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1723.03492661696</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1354.072409676548</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1354.072409676548</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>968.2841570783037</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.03492661696</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>137.9379165441865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>137.9379165441865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>216.038025956152</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1933.544000781331</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1564.581483840919</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1206.315785234169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.315785234169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1796.424269041897</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>422.6486545462877</v>
+        <v>647.9984719227052</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.514859931282</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>980.5523429908701</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>622.2866443841197</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>622.2866443841197</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>615.3411436349162</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.514859931282</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8441717289249</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>615.7287139444702</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.349982118496</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2454.788897759313</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>3432.395618344844</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4668.445929156632</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4462.41447579193</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1508857646358</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1763019983995</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272.8335079718058</v>
+        <v>824.3287722635405</v>
       </c>
       <c r="C13" t="n">
-        <v>272.8335079718058</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D13" t="n">
-        <v>272.8335079718058</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E13" t="n">
-        <v>272.8335079718058</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>125.9435604738955</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>125.9435604738955</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>125.9435604738955</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3216175627468</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6821446305111</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1860.937681577988</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1669.155890474739</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1447.365761086448</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1447.365761086448</v>
+        <v>1744.176537172288</v>
       </c>
       <c r="V13" t="n">
-        <v>1192.681272880561</v>
+        <v>1744.176537172288</v>
       </c>
       <c r="W13" t="n">
-        <v>903.2641028436007</v>
+        <v>1454.759367135328</v>
       </c>
       <c r="X13" t="n">
-        <v>675.2745519455833</v>
+        <v>1226.76981623731</v>
       </c>
       <c r="Y13" t="n">
-        <v>454.4819728020532</v>
+        <v>1005.97723709378</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.618329116776</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289243</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847893</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6326723899233</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1681.71049092136</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2658.149406562178</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3202.782671979844</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156632</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4462.41447579193</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3525.051474964951</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3151.585716703871</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.446384728059</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457319</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646358</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>188.6497545038421</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309152</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983995</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.7023026089144</v>
+        <v>658.6192812500589</v>
       </c>
       <c r="C16" t="n">
-        <v>686.7661196810075</v>
+        <v>658.6192812500589</v>
       </c>
       <c r="D16" t="n">
-        <v>536.6494802686717</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="E16" t="n">
-        <v>388.7363866862786</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="F16" t="n">
-        <v>241.8464391883683</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G16" t="n">
-        <v>241.8464391883683</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.58032336208746</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627431</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305074</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012486</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802361</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393456</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025956</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706695</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.015585704208</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1860.937681577984</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1669.155890474735</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1447.365761086444</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1158.262594033903</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V16" t="n">
-        <v>903.5781058280162</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W16" t="n">
-        <v>903.5781058280162</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X16" t="n">
-        <v>903.5781058280162</v>
+        <v>879.411860393589</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.7023026089144</v>
+        <v>658.6192812500589</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6326723899233</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L17" t="n">
-        <v>1799.253940563949</v>
+        <v>1237.706702364127</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.674458046863</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N17" t="n">
-        <v>3202.782671979844</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O17" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>195.1508857646358</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019983995</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R18" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>659.0142686211695</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C19" t="n">
-        <v>490.0780856932627</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D19" t="n">
-        <v>339.9614462809269</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>339.9614462809269</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0714987830166</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G19" t="n">
-        <v>193.0714987830166</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>193.0714987830166</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627469</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>343.6821446305111</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1951.015585704212</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.015585704212</v>
+        <v>1861.713715598273</v>
       </c>
       <c r="T19" t="n">
-        <v>1894.660137890328</v>
+        <v>1639.947100167799</v>
       </c>
       <c r="U19" t="n">
-        <v>1605.556970837787</v>
+        <v>1350.844233293443</v>
       </c>
       <c r="V19" t="n">
-        <v>1350.8724826319</v>
+        <v>1096.159745087556</v>
       </c>
       <c r="W19" t="n">
-        <v>1061.455312594939</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.455312594939</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.6627334514093</v>
+        <v>806.7425750505952</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289252</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.7594529847902</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>138.0502069051136</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K20" t="n">
-        <v>615.7287139444702</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L20" t="n">
-        <v>1248.737035753496</v>
+        <v>1364.144379432263</v>
       </c>
       <c r="M20" t="n">
-        <v>2225.175951394313</v>
+        <v>1897.676284104188</v>
       </c>
       <c r="N20" t="n">
-        <v>3202.782671979844</v>
+        <v>2877.428556330834</v>
       </c>
       <c r="O20" t="n">
-        <v>4080.721338735274</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268582</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457312</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844801</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790245</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059096</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646356</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>104.585594336226</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983994</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2584.194155770509</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R21" t="n">
-        <v>2584.194155770509</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2454.634340755505</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2261.964881803066</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2033.896603077357</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1544.507138117413</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1336.65563791188</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1128.895339146926</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>578.4909620082796</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C22" t="n">
-        <v>409.5547790803727</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D22" t="n">
-        <v>409.5547790803727</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E22" t="n">
-        <v>409.5547790803727</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="F22" t="n">
-        <v>409.5547790803727</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="G22" t="n">
-        <v>241.8464391883683</v>
+        <v>339.1038984121912</v>
       </c>
       <c r="H22" t="n">
-        <v>95.58032336208747</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627469</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>343.682144630511</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>659.4400393012521</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1343.334575393459</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>1641.901792025959</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1951.015585704212</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1861.475467589977</v>
+        <v>1858.887734037782</v>
       </c>
       <c r="T22" t="n">
-        <v>1639.685338201686</v>
+        <v>1858.887734037782</v>
       </c>
       <c r="U22" t="n">
-        <v>1350.582171149145</v>
+        <v>1858.887734037782</v>
       </c>
       <c r="V22" t="n">
-        <v>1095.897682943258</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="W22" t="n">
-        <v>806.480512906297</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X22" t="n">
-        <v>578.4909620082796</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y22" t="n">
-        <v>578.4909620082796</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663939</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>615.7287139444702</v>
+        <v>939.1634975427198</v>
       </c>
       <c r="L23" t="n">
-        <v>1248.737035753496</v>
+        <v>1614.698881814244</v>
       </c>
       <c r="M23" t="n">
-        <v>2225.175951394313</v>
+        <v>2593.249184644073</v>
       </c>
       <c r="N23" t="n">
-        <v>3202.782671979844</v>
+        <v>3573.00145687072</v>
       </c>
       <c r="O23" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235067</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.585716703873</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728061</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1508857646358</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>791.1763019983995</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.0459545013017</v>
+        <v>719.7238607267869</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0459545013016</v>
+        <v>550.7876777988801</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0459545013016</v>
+        <v>400.6710383865443</v>
       </c>
       <c r="E25" t="n">
-        <v>507.0459545013016</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>507.0459545013016</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>339.3376146092975</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>193.0714987830166</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.58032336208747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.321617562747</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6821446305112</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q25" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1860.937681577988</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1669.155890474738</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1447.365761086447</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1158.262594033906</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V25" t="n">
-        <v>903.5781058280193</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W25" t="n">
-        <v>614.1609357910588</v>
+        <v>901.3723255570267</v>
       </c>
       <c r="X25" t="n">
-        <v>614.1609357910588</v>
+        <v>901.3723255570267</v>
       </c>
       <c r="Y25" t="n">
-        <v>614.1609357910588</v>
+        <v>901.3723255570267</v>
       </c>
     </row>
     <row r="26">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>746.4187980346552</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>577.4826151067483</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>427.3659756944126</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>279.4528821120196</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>928.0672628648949</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>928.0672628648949</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6476,37 +6476,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.238303939012</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.6091747370277</v>
+        <v>949.3913047785751</v>
       </c>
       <c r="C31" t="n">
-        <v>500.6091747370277</v>
+        <v>780.4551218506682</v>
       </c>
       <c r="D31" t="n">
-        <v>500.6091747370277</v>
+        <v>630.3384824383324</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>482.4253888559392</v>
       </c>
       <c r="F31" t="n">
         <v>409.4810578558177</v>
@@ -6613,10 +6613,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6625,16 +6625,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6661,10 +6661,10 @@
         <v>1131.039769608815</v>
       </c>
       <c r="X31" t="n">
-        <v>903.0502187107975</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="Y31" t="n">
-        <v>682.2576395672675</v>
+        <v>1131.039769608815</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,19 +6698,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>300.048425655595</v>
+        <v>1002.603792133599</v>
       </c>
       <c r="C34" t="n">
-        <v>300.048425655595</v>
+        <v>833.667609205692</v>
       </c>
       <c r="D34" t="n">
-        <v>300.048425655595</v>
+        <v>683.5509697933562</v>
       </c>
       <c r="E34" t="n">
-        <v>152.1353320732019</v>
+        <v>535.6378762109631</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>388.7479287130527</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>221.0450920877717</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>1184.252256963839</v>
       </c>
     </row>
     <row r="35">
@@ -6950,10 +6950,10 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>1113.19412672182</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>945.3248683276554</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>796.2751534490624</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>649.4289844004119</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>503.6059614362442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>336.9700493447059</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>191.8197870963064</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9491542444237</v>
+        <v>141.7293596308512</v>
       </c>
       <c r="K37" t="n">
-        <v>349.2018245423938</v>
+        <v>346.7622353152487</v>
       </c>
       <c r="L37" t="n">
-        <v>668.0271103399836</v>
+        <v>664.3677264992662</v>
       </c>
       <c r="M37" t="n">
-        <v>1014.449643288626</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.123507343585</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.718593613092</v>
+        <v>1652.399825931656</v>
       </c>
       <c r="P37" t="n">
-        <v>1894.591581395845</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.467364897453</v>
+        <v>1964.709007988873</v>
       </c>
       <c r="R37" t="n">
-        <v>1954.156766689998</v>
+        <v>1875.945475280143</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.782368435704</v>
+        <v>1767.118885300248</v>
       </c>
       <c r="T37" t="n">
-        <v>1545.327238924109</v>
+        <v>1767.118885300248</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.535857968632</v>
+        <v>1767.118885300248</v>
       </c>
       <c r="V37" t="n">
-        <v>1006.162855681625</v>
+        <v>1513.501321628104</v>
       </c>
       <c r="W37" t="n">
-        <v>719.0571715635433</v>
+        <v>1513.501321628104</v>
       </c>
       <c r="X37" t="n">
-        <v>493.3791065844054</v>
+        <v>1513.501321628104</v>
       </c>
       <c r="Y37" t="n">
-        <v>274.8980133597547</v>
+        <v>1293.775667018317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7157,16 +7157,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7178,13 +7178,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089897</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215046</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841671</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7561,7 +7561,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7600,7 +7600,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001584</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,10 +8699,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>148.8679122071902</v>
+        <v>246.454569480845</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>298.9304573357144</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909335</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277281</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>330.7827762780963</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602909335</v>
+        <v>-1.426747608945789e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185.728945494895</v>
+        <v>297.8289162490776</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5463950602909335</v>
+        <v>-1.426747608945789e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>185.728945494895</v>
+        <v>226.7688596193087</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463950602909335</v>
+        <v>-1.426747608945789e-12</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,16 +10826,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>66.45665892602989</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>76.16657856252183</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>10.98338027872708</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.187608165184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.8639731922165</v>
+        <v>185.017725000122</v>
       </c>
       <c r="T19" t="n">
-        <v>163.7803347586632</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>101.2192562591244</v>
+        <v>182.2200032552363</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.78814870507772</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>106.7532874166671</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>129.3939270949706</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,16 +24649,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>56.21712693417126</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>73.20616033281098</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>89.41249337437182</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>116.8782182611754</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9584500389372</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3271019585217</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>144.1455915868785</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.1326769632406</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7374371993376</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4666438546301</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>94.06404935014746</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.53628938497597</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>80.97444596294068</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877639</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172076</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481858</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006319</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1089476.402984364</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1091244.036719384</v>
+        <v>1090292.298847351</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>317609.0302282808</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="F2" t="n">
-        <v>317609.0302282808</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="G2" t="n">
-        <v>317609.0302282809</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="H2" t="n">
-        <v>317609.0302282808</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="I2" t="n">
-        <v>317609.0302282809</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="J2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="K2" t="n">
+        <v>317665.4295095865</v>
+      </c>
+      <c r="L2" t="n">
         <v>317665.4295095864</v>
       </c>
-      <c r="L2" t="n">
-        <v>317665.4295095865</v>
-      </c>
       <c r="M2" t="n">
-        <v>318189.1728384815</v>
+        <v>317907.1764319523</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457133</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>725022.0883529598</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245355</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131533.0976172968</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>35749.41244712154</v>
+        <v>36735.10506414984</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18359.70425226877</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226878</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18359.70425226879</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="I4" t="n">
-        <v>18359.70425226883</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18901.48044000648</v>
+        <v>18496.05294811447</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96575.89932033079</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-527758.9361893684</v>
+        <v>-527758.9361893685</v>
       </c>
       <c r="C6" t="n">
-        <v>62208.94302517586</v>
+        <v>62208.9430251758</v>
       </c>
       <c r="D6" t="n">
-        <v>62208.94302517589</v>
+        <v>62208.9430251758</v>
       </c>
       <c r="E6" t="n">
-        <v>-522105.0760082722</v>
+        <v>-524311.1905469496</v>
       </c>
       <c r="F6" t="n">
-        <v>202917.0123446877</v>
+        <v>203066.2234464571</v>
       </c>
       <c r="G6" t="n">
-        <v>202917.0123446878</v>
+        <v>203066.2234464567</v>
       </c>
       <c r="H6" t="n">
-        <v>202917.0123446877</v>
+        <v>203066.2234464572</v>
       </c>
       <c r="I6" t="n">
-        <v>202917.0123446877</v>
+        <v>203066.2234464571</v>
       </c>
       <c r="J6" t="n">
-        <v>24538.15941214738</v>
+        <v>26643.00425386448</v>
       </c>
       <c r="K6" t="n">
-        <v>203133.4189366828</v>
+        <v>203066.2234464572</v>
       </c>
       <c r="L6" t="n">
-        <v>203133.4189366829</v>
+        <v>203066.2234464572</v>
       </c>
       <c r="M6" t="n">
-        <v>71178.69546084746</v>
+        <v>72385.80326265311</v>
       </c>
       <c r="N6" t="n">
-        <v>158728.971187081</v>
+        <v>157743.2785700523</v>
       </c>
       <c r="O6" t="n">
-        <v>194478.3836342024</v>
+        <v>194478.3836342025</v>
       </c>
       <c r="P6" t="n">
-        <v>194478.3836342024</v>
+        <v>194478.3836342022</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="N2" t="n">
-        <v>44.68676555890193</v>
+        <v>45.9188813301873</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452002</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.021293431011372</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.0461613333925</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>67.39376850200784</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>62.62713249860494</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.15481688246713</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>58.11055965766516</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>155.6652293920586</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>210.9155337482471</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>12.97909783334671</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>172.8084361629363</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.922762588746</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>135.1869197520266</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7780420844848</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168093</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.599091320977081e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.732143662578304e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="C37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="D37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="E37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="F37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="G37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="H37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="J37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="K37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="L37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="M37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="N37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="O37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="P37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="R37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="S37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="T37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="U37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="V37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="W37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="X37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.28837105969062</v>
+        <v>1.056255288405254</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610845</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696338</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295526</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939679</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.368865958441351</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.7426484968875</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>370.802037140262</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>274.4357762619418</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4237178394216</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.1162662922077</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.368865958441351</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.7426484968875</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>370.802037140262</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>274.4357762619418</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4237178394216</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.1162662922077</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368865958441351</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.7426484968875</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>370.802037140262</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>274.4357762619418</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4237178394216</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.1162662922077</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161039</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3346143171973</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>986.3019349907253</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>987.4815359449802</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>654.8744650408393</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510453</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581281</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531253</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>659.7916946872687</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>752.6038571024612</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>986.3019349907253</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>550.1346115329961</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>886.8067340963944</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510453</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581281</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.1932264653088</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>659.7916946872687</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>871.3346143171973</v>
+        <v>625.7042053200605</v>
       </c>
       <c r="M17" t="n">
-        <v>536.7884014978928</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>880.9173878110925</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O17" t="n">
-        <v>886.8067340963944</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P17" t="n">
-        <v>397.0153901510453</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19322646531253</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>335.6462821161039</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>639.4023452616418</v>
+        <v>753.41903064141</v>
       </c>
       <c r="M20" t="n">
-        <v>986.3019349907253</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
-        <v>987.4815359449802</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O20" t="n">
-        <v>886.8067340963944</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P20" t="n">
-        <v>397.0153901510453</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R20" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19322646531251</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K22" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.9380232298109</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6462821161039</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>639.4023452616418</v>
+        <v>682.3589740116411</v>
       </c>
       <c r="M23" t="n">
-        <v>986.3019349907253</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N23" t="n">
-        <v>987.4815359449802</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O23" t="n">
-        <v>886.8067340963944</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>397.0153901510453</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R23" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19322646531251</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.86678767275684</v>
+        <v>46.63467190147148</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3360306040102</v>
+        <v>207.1039148327248</v>
       </c>
       <c r="L37" t="n">
-        <v>322.0457432298887</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>349.9217504531745</v>
+        <v>348.6896346818891</v>
       </c>
       <c r="N37" t="n">
-        <v>347.1453172272307</v>
+        <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6415012823304</v>
+        <v>303.409385511045</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2454422048011</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.68260959758427</v>
+        <v>79.45049382629891</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
